--- a/참고자료/GRADE-테이블명세양식(2019-10-07.xlsx
+++ b/참고자료/GRADE-테이블명세양식(2019-10-07.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12285" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="도서정보" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="102">
   <si>
     <t>테이블 이름</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -342,31 +342,83 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>학생이름</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>학년</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(125)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_num</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_tel</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_addr</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_grade</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>st_dept</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(20)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUMBER(1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_dept</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>nVARCHAR2(3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성적표2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tbl_score2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학번</t>
+  </si>
+  <si>
+    <t>이름</t>
   </si>
   <si>
     <t>전화번호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>주소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>학년</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(125)</t>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -374,51 +426,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>st_num</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>st_name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>st_tel</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>st_addr</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>st_grade</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>st_dept</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2(20)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>NUMBER(1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>d_dept</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>nVARCHAR2(3)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>성적표2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>tbl_score2</t>
+    <t>VARCHAR2(5)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1015,7 +1023,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3653,7 +3661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L11"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -4341,7 +4349,7 @@
     </row>
     <row r="2" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B2" s="5" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>58</v>
@@ -4366,7 +4374,7 @@
     </row>
     <row r="3" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="12" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C3" s="18" t="s">
         <v>68</v>
@@ -5251,10 +5259,10 @@
         <v>74</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -5275,7 +5283,7 @@
         <v>76</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -5389,8 +5397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B1:L11"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -6080,16 +6088,16 @@
         <v>77</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>36</v>
+        <v>101</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6" t="s">
@@ -6105,13 +6113,13 @@
         <v>78</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>55</v>
@@ -6128,16 +6136,16 @@
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="12"/>
       <c r="C4" s="8" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -6149,13 +6157,13 @@
     <row r="5" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="12"/>
       <c r="C5" s="8" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>53</v>
@@ -6170,18 +6178,20 @@
     <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="12"/>
       <c r="C6" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="G6" s="8"/>
+        <v>90</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="8"/>
@@ -6194,15 +6204,17 @@
         <v>68</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G7" s="8"/>
+        <v>99</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="H7" s="8"/>
       <c r="I7" s="8"/>
       <c r="J7" s="8"/>
